--- a/tools/excel/NIS2/mappings/mapping-annex-technical-and-methodological-requirements-nis2-and-ccb-cff-2023-03-01.xlsx
+++ b/tools/excel/NIS2/mappings/mapping-annex-technical-and-methodological-requirements-nis2-and-ccb-cff-2023-03-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\NIS2\mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E4B856-7799-4CD7-AE0A-86BA1E1866F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DED2B6-10A2-45AC-864F-6DF70A01A1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16020" yWindow="-20090" windowWidth="24600" windowHeight="15530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19210" yWindow="-21710" windowWidth="38620" windowHeight="21820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12992" uniqueCount="2646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12995" uniqueCount="2647">
   <si>
     <t>type</t>
   </si>
@@ -7968,6 +7968,9 @@
   </si>
   <si>
     <t>Mapping between NIS2 technical and methodological requirements 2024/2690 and CCB CyberFundamentals Framework - 2023-03-01</t>
+  </si>
+  <si>
+    <t>12.5:1</t>
   </si>
 </sst>
 </file>
@@ -8515,8 +8518,8 @@
   <dimension ref="A1:E3383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A2915" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2941" sqref="D2941"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40884,8 +40887,8 @@
       </c>
     </row>
     <row r="2942" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2942">
-        <v>1</v>
+      <c r="A2942" t="s">
+        <v>2646</v>
       </c>
       <c r="B2942" t="s">
         <v>2100</v>
@@ -40895,8 +40898,8 @@
       </c>
     </row>
     <row r="2943" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2943">
-        <v>1</v>
+      <c r="A2943" t="s">
+        <v>2646</v>
       </c>
       <c r="B2943" t="s">
         <v>1856</v>
@@ -40906,8 +40909,8 @@
       </c>
     </row>
     <row r="2944" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2944">
-        <v>1</v>
+      <c r="A2944" t="s">
+        <v>2646</v>
       </c>
       <c r="B2944" t="s">
         <v>2104</v>

--- a/tools/excel/NIS2/mappings/mapping-annex-technical-and-methodological-requirements-nis2-and-ccb-cff-2023-03-01.xlsx
+++ b/tools/excel/NIS2/mappings/mapping-annex-technical-and-methodological-requirements-nis2-and-ccb-cff-2023-03-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\NIS2\mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFB9F99-685D-4127-968A-AF51A269351A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D621B65F-E39C-4A6A-8FCA-E2B44D2258FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -7981,7 +7981,7 @@
 respective rights holders.</t>
   </si>
   <si>
-    <t>2.1.2_g</t>
+    <t>2.1.2.g</t>
   </si>
 </sst>
 </file>
@@ -8333,7 +8333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -8531,9 +8531,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E3383"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45441,7 +45441,7 @@
   <dimension ref="A1:F440"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
